--- a/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAF83C2-C8EB-443A-884D-0E4784D006C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{582C2788-7711-47B9-8708-6AC438383491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C52DC3DE-24B5-425B-B4B5-17A2C69E42B5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{157059B2-0EA9-47A7-B092-824F33D120D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,949 +74,952 @@
     <t>17,24%</t>
   </si>
   <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>Con menos frecuencia /raramente</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>Con menos frecuencia /raramente</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A0434C-ED9A-4E8D-8ABE-30B6D89324E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306391B4-3F64-4653-9C94-375C2096EDDB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1657,13 +1660,13 @@
         <v>4019</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -1672,13 +1675,13 @@
         <v>3280</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1687,19 +1690,19 @@
         <v>7299</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1708,13 +1711,13 @@
         <v>10779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1723,13 +1726,13 @@
         <v>3994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1738,19 +1741,19 @@
         <v>14772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1759,13 +1762,13 @@
         <v>8735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1774,13 +1777,13 @@
         <v>4830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1789,19 +1792,19 @@
         <v>13565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -1810,13 +1813,13 @@
         <v>9859</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -1825,13 +1828,13 @@
         <v>3867</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -1840,13 +1843,13 @@
         <v>13727</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1864,13 @@
         <v>52039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -1876,13 +1879,13 @@
         <v>44528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1891,18 +1894,18 @@
         <v>96567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1917,13 @@
         <v>71419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -1929,13 +1932,13 @@
         <v>57660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
@@ -1944,13 +1947,13 @@
         <v>129078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1968,13 @@
         <v>54577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -1980,13 +1983,13 @@
         <v>43636</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -1995,13 +1998,13 @@
         <v>98214</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2019,13 @@
         <v>41816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -2031,13 +2034,13 @@
         <v>32685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2046,19 +2049,19 @@
         <v>74501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>44</v>
@@ -2067,13 +2070,13 @@
         <v>48880</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -2082,13 +2085,13 @@
         <v>38974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -2097,19 +2100,19 @@
         <v>87855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>38</v>
@@ -2139,7 +2142,7 @@
         <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -2148,19 +2151,19 @@
         <v>74546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>27</v>
@@ -2169,7 +2172,7 @@
         <v>31119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
@@ -2199,13 +2202,13 @@
         <v>53794</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2223,13 @@
         <v>290530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
@@ -2235,13 +2238,13 @@
         <v>227457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>625</v>
@@ -2250,18 +2253,18 @@
         <v>517987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2273,13 +2276,13 @@
         <v>207665</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -2288,13 +2291,13 @@
         <v>105109</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>274</v>
@@ -2303,7 +2306,7 @@
         <v>312774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>130</v>
@@ -2324,7 +2327,7 @@
         <v>121264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>132</v>
@@ -2342,10 +2345,10 @@
         <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -2354,13 +2357,13 @@
         <v>207187</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2378,13 @@
         <v>76745</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2417,7 +2420,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>102</v>
@@ -2468,7 +2471,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>70</v>
@@ -2480,10 +2483,10 @@
         <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -2492,13 +2495,13 @@
         <v>81947</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>169</v>
@@ -2507,7 +2510,7 @@
         <v>167797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>163</v>
@@ -2519,7 +2522,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -2543,13 +2546,13 @@
         <v>41514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -2558,13 +2561,13 @@
         <v>62975</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2582,13 @@
         <v>632381</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>599</v>
@@ -2594,13 +2597,13 @@
         <v>444419</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1128</v>
@@ -2609,18 +2612,18 @@
         <v>1076800</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2635,13 @@
         <v>144286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -2647,13 +2650,13 @@
         <v>105176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -2662,13 +2665,13 @@
         <v>249462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2686,13 @@
         <v>61533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2698,13 +2701,13 @@
         <v>45488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -2713,13 +2716,13 @@
         <v>107020</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2737,13 @@
         <v>23089</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -2749,13 +2752,13 @@
         <v>33410</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>72</v>
@@ -2764,19 +2767,19 @@
         <v>56499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>68</v>
@@ -2785,13 +2788,13 @@
         <v>75790</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -2800,13 +2803,13 @@
         <v>51091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -2815,19 +2818,19 @@
         <v>126881</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>37</v>
@@ -2836,13 +2839,13 @@
         <v>48117</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -2851,13 +2854,13 @@
         <v>61114</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -2866,19 +2869,19 @@
         <v>109232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -2887,13 +2890,13 @@
         <v>15793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -2902,13 +2905,13 @@
         <v>29169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -2917,13 +2920,13 @@
         <v>44962</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2941,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>425</v>
@@ -2953,13 +2956,13 @@
         <v>325448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2968,18 +2971,18 @@
         <v>694056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2994,13 @@
         <v>175001</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -3006,13 +3009,13 @@
         <v>134817</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>339</v>
@@ -3021,13 +3024,13 @@
         <v>309818</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3045,13 @@
         <v>94127</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>127</v>
@@ -3057,13 +3060,13 @@
         <v>88837</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>219</v>
@@ -3072,13 +3075,13 @@
         <v>182965</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3096,13 @@
         <v>62632</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
@@ -3108,13 +3111,13 @@
         <v>50499</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M34" s="7">
         <v>125</v>
@@ -3123,19 +3126,19 @@
         <v>113131</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
         <v>64</v>
@@ -3144,13 +3147,13 @@
         <v>66827</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -3159,13 +3162,13 @@
         <v>64951</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -3174,19 +3177,19 @@
         <v>131778</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>60</v>
@@ -3195,13 +3198,13 @@
         <v>66533</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="H36" s="7">
         <v>89</v>
@@ -3210,13 +3213,13 @@
         <v>69470</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M36" s="7">
         <v>149</v>
@@ -3225,19 +3228,19 @@
         <v>136003</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -3246,13 +3249,13 @@
         <v>29836</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H37" s="7">
         <v>69</v>
@@ -3261,13 +3264,13 @@
         <v>52460</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M37" s="7">
         <v>97</v>
@@ -3276,13 +3279,13 @@
         <v>82296</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3300,13 @@
         <v>494956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7">
         <v>602</v>
@@ -3312,13 +3315,13 @@
         <v>461035</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7">
         <v>1081</v>
@@ -3327,13 +3330,13 @@
         <v>955991</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3353,13 @@
         <v>607343</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H39" s="7">
         <v>543</v>
@@ -3365,13 +3368,13 @@
         <v>420735</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" s="7">
         <v>1071</v>
@@ -3380,13 +3383,13 @@
         <v>1028078</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3404,13 @@
         <v>341176</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H40" s="7">
         <v>423</v>
@@ -3416,13 +3419,13 @@
         <v>274469</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" s="7">
         <v>759</v>
@@ -3431,13 +3434,13 @@
         <v>615644</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3455,13 @@
         <v>208300</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H41" s="7">
         <v>243</v>
@@ -3467,13 +3470,13 @@
         <v>171741</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M41" s="7">
         <v>454</v>
@@ -3488,13 +3491,13 @@
         <v>304</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>289</v>
@@ -3503,13 +3506,13 @@
         <v>321672</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>319</v>
@@ -3518,7 +3521,7 @@
         <v>237070</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>308</v>
@@ -3533,19 +3536,19 @@
         <v>558742</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>212</v>
@@ -3554,13 +3557,13 @@
         <v>251955</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>314</v>
@@ -3569,13 +3572,13 @@
         <v>249187</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>526</v>
@@ -3584,19 +3587,19 @@
         <v>501143</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>100</v>
@@ -3605,13 +3608,13 @@
         <v>108068</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="H44" s="7">
         <v>193</v>
@@ -3620,13 +3623,13 @@
         <v>149685</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>293</v>
@@ -3635,13 +3638,13 @@
         <v>257753</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3659,13 @@
         <v>1838515</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="7">
         <v>2035</v>
@@ -3671,13 +3674,13 @@
         <v>1502886</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="7">
         <v>3711</v>
@@ -3686,18 +3689,18 @@
         <v>3341402</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582C2788-7711-47B9-8708-6AC438383491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0583FFC-9FE4-46AE-A0FA-C8291585DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{157059B2-0EA9-47A7-B092-824F33D120D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE3C1CB4-71A9-4235-8002-B62EA710E14A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
@@ -251,7 +251,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,58%</t>
@@ -404,7 +404,7 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>32,84%</t>
@@ -560,7 +560,7 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>39,14%</t>
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306391B4-3F64-4653-9C94-375C2096EDDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729A8A6-ED37-46E6-A4E5-7E634DA49247}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0583FFC-9FE4-46AE-A0FA-C8291585DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70988D5F-7439-4567-B1E5-15174741768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE3C1CB4-71A9-4235-8002-B62EA710E14A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF14FFF4-E931-431D-B279-14B71FF2C0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,952 +74,949 @@
     <t>17,24%</t>
   </si>
   <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>Con menos frecuencia /raramente</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>Con menos frecuencia /raramente</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729A8A6-ED37-46E6-A4E5-7E634DA49247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63E2E38-A533-4F97-B786-F9158B00649F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1660,13 +1657,13 @@
         <v>4019</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -1675,13 +1672,13 @@
         <v>3280</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1690,19 +1687,19 @@
         <v>7299</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1711,13 +1708,13 @@
         <v>10779</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1726,13 +1723,13 @@
         <v>3994</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1741,19 +1738,19 @@
         <v>14772</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1762,13 +1759,13 @@
         <v>8735</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1777,13 +1774,13 @@
         <v>4830</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1792,19 +1789,19 @@
         <v>13565</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
@@ -1813,13 +1810,13 @@
         <v>9859</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -1828,13 +1825,13 @@
         <v>3867</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -1843,13 +1840,13 @@
         <v>13727</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1861,13 @@
         <v>52039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -1879,13 +1876,13 @@
         <v>44528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1894,18 +1891,18 @@
         <v>96567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1917,13 +1914,13 @@
         <v>71419</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -1932,13 +1929,13 @@
         <v>57660</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
@@ -1947,13 +1944,13 @@
         <v>129078</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1965,13 @@
         <v>54577</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -1983,13 +1980,13 @@
         <v>43636</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -1998,13 +1995,13 @@
         <v>98214</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2016,13 @@
         <v>41816</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -2034,13 +2031,13 @@
         <v>32685</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2049,19 +2046,19 @@
         <v>74501</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>44</v>
@@ -2070,13 +2067,13 @@
         <v>48880</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -2085,13 +2082,13 @@
         <v>38974</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -2100,19 +2097,19 @@
         <v>87855</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>38</v>
@@ -2142,7 +2139,7 @@
         <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -2151,19 +2148,19 @@
         <v>74546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>27</v>
@@ -2172,7 +2169,7 @@
         <v>31119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
@@ -2202,13 +2199,13 @@
         <v>53794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2220,13 @@
         <v>290530</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
@@ -2238,13 +2235,13 @@
         <v>227457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>625</v>
@@ -2253,18 +2250,18 @@
         <v>517987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2276,13 +2273,13 @@
         <v>207665</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -2291,13 +2288,13 @@
         <v>105109</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>274</v>
@@ -2306,7 +2303,7 @@
         <v>312774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>130</v>
@@ -2327,7 +2324,7 @@
         <v>121264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>132</v>
@@ -2345,10 +2342,10 @@
         <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -2357,13 +2354,13 @@
         <v>207187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2375,13 @@
         <v>76745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2420,7 +2417,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>102</v>
@@ -2471,7 +2468,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>70</v>
@@ -2483,10 +2480,10 @@
         <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -2495,13 +2492,13 @@
         <v>81947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>169</v>
@@ -2510,7 +2507,7 @@
         <v>167797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>163</v>
@@ -2522,7 +2519,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -2546,13 +2543,13 @@
         <v>41514</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -2561,13 +2558,13 @@
         <v>62975</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2579,13 @@
         <v>632381</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>599</v>
@@ -2597,13 +2594,13 @@
         <v>444419</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1128</v>
@@ -2612,18 +2609,18 @@
         <v>1076800</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2635,13 +2632,13 @@
         <v>144286</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -2650,13 +2647,13 @@
         <v>105176</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -2665,13 +2662,13 @@
         <v>249462</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2683,13 @@
         <v>61533</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2701,13 +2698,13 @@
         <v>45488</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -2716,13 +2713,13 @@
         <v>107020</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2734,13 @@
         <v>23089</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -2752,13 +2749,13 @@
         <v>33410</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>72</v>
@@ -2767,19 +2764,19 @@
         <v>56499</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>68</v>
@@ -2788,13 +2785,13 @@
         <v>75790</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
@@ -2803,13 +2800,13 @@
         <v>51091</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -2818,19 +2815,19 @@
         <v>126881</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>37</v>
@@ -2839,13 +2836,13 @@
         <v>48117</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>78</v>
@@ -2854,13 +2851,13 @@
         <v>61114</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -2869,19 +2866,19 @@
         <v>109232</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -2890,13 +2887,13 @@
         <v>15793</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -2905,13 +2902,13 @@
         <v>29169</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -2920,13 +2917,13 @@
         <v>44962</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2938,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>425</v>
@@ -2956,13 +2953,13 @@
         <v>325448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2971,18 +2968,18 @@
         <v>694056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2994,13 +2991,13 @@
         <v>175001</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -3009,13 +3006,13 @@
         <v>134817</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>339</v>
@@ -3024,13 +3021,13 @@
         <v>309818</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3042,13 @@
         <v>94127</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>127</v>
@@ -3060,13 +3057,13 @@
         <v>88837</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>219</v>
@@ -3075,13 +3072,13 @@
         <v>182965</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3093,13 @@
         <v>62632</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H34" s="7">
         <v>63</v>
@@ -3111,13 +3108,13 @@
         <v>50499</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M34" s="7">
         <v>125</v>
@@ -3126,19 +3123,19 @@
         <v>113131</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7">
         <v>64</v>
@@ -3147,13 +3144,13 @@
         <v>66827</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -3162,13 +3159,13 @@
         <v>64951</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M35" s="7">
         <v>152</v>
@@ -3177,19 +3174,19 @@
         <v>131778</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>60</v>
@@ -3198,13 +3195,13 @@
         <v>66533</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H36" s="7">
         <v>89</v>
@@ -3213,13 +3210,13 @@
         <v>69470</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M36" s="7">
         <v>149</v>
@@ -3228,19 +3225,19 @@
         <v>136003</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>28</v>
@@ -3249,13 +3246,13 @@
         <v>29836</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H37" s="7">
         <v>69</v>
@@ -3264,13 +3261,13 @@
         <v>52460</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M37" s="7">
         <v>97</v>
@@ -3279,13 +3276,13 @@
         <v>82296</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3297,13 @@
         <v>494956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="7">
         <v>602</v>
@@ -3315,13 +3312,13 @@
         <v>461035</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>1081</v>
@@ -3330,13 +3327,13 @@
         <v>955991</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3350,13 @@
         <v>607343</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H39" s="7">
         <v>543</v>
@@ -3368,13 +3365,13 @@
         <v>420735</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M39" s="7">
         <v>1071</v>
@@ -3383,13 +3380,13 @@
         <v>1028078</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3401,13 @@
         <v>341176</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H40" s="7">
         <v>423</v>
@@ -3419,13 +3416,13 @@
         <v>274469</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M40" s="7">
         <v>759</v>
@@ -3434,13 +3431,13 @@
         <v>615644</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3452,13 @@
         <v>208300</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H41" s="7">
         <v>243</v>
@@ -3470,13 +3467,13 @@
         <v>171741</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M41" s="7">
         <v>454</v>
@@ -3491,13 +3488,13 @@
         <v>304</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>289</v>
@@ -3506,13 +3503,13 @@
         <v>321672</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>319</v>
@@ -3521,7 +3518,7 @@
         <v>237070</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>308</v>
@@ -3536,19 +3533,19 @@
         <v>558742</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>212</v>
@@ -3557,13 +3554,13 @@
         <v>251955</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>314</v>
@@ -3572,13 +3569,13 @@
         <v>249187</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>526</v>
@@ -3587,19 +3584,19 @@
         <v>501143</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>100</v>
@@ -3608,13 +3605,13 @@
         <v>108068</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="H44" s="7">
         <v>193</v>
@@ -3623,13 +3620,13 @@
         <v>149685</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="M44" s="7">
         <v>293</v>
@@ -3638,13 +3635,13 @@
         <v>257753</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3656,13 @@
         <v>1838515</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7">
         <v>2035</v>
@@ -3674,13 +3671,13 @@
         <v>1502886</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M45" s="7">
         <v>3711</v>
@@ -3689,18 +3686,18 @@
         <v>3341402</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
